--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p10_data.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p10_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\TestingSuite\Assets\Studies\CHI26_Study1_Funneling\data_processing\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7654E-407E-48B5-8E2E-125661B5BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +52,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G181"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>10</v>
       </c>
@@ -454,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.29555870000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2955587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
@@ -477,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.81347659999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8134766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10</v>
       </c>
@@ -500,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.76804530000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7680453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10</v>
       </c>
@@ -523,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5.9315279999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.05931528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10</v>
       </c>
@@ -549,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10</v>
       </c>
@@ -569,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.92705499999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.927055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>10</v>
       </c>
@@ -592,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.72715719999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7271571999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>10</v>
       </c>
@@ -618,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
@@ -641,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -661,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.16380749999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1638075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -684,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.79757549999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7975755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -707,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.62947960000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6294796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -730,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.64538030000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6453803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>10</v>
       </c>
@@ -753,10 +740,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.89525299999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.895253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>10</v>
       </c>
@@ -776,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.3388830000000006E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.09338883000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>10</v>
       </c>
@@ -799,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.80893380000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8089338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>10</v>
       </c>
@@ -825,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>10</v>
       </c>
@@ -848,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>10</v>
       </c>
@@ -868,10 +855,10 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>0.98462550000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9846255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>10</v>
       </c>
@@ -891,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.64310869999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6431087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>10</v>
       </c>
@@ -917,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>10</v>
       </c>
@@ -940,7 +927,7 @@
         <v>0.5863199</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>10</v>
       </c>
@@ -960,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.7487810000000004E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.07748781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>10</v>
       </c>
@@ -986,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1006,10 +993,10 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>0.62266460000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6226646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1032,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1052,10 +1039,10 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>0.69308360000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6930836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1075,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>3.6599390000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.03659939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1098,10 +1085,10 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>0.82256289999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8225629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1121,10 +1108,10 @@
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>7.5216000000000005E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.07521600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>10</v>
       </c>
@@ -1144,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.68172560000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6817256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1167,10 +1154,10 @@
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>0.95431410000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9543141000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1190,10 +1177,10 @@
         <v>-1</v>
       </c>
       <c r="G34">
-        <v>0.33871830000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3387183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1213,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7.2944430000000005E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.07294443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1236,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>8.6574280000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.08657428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1262,7 +1249,7 @@
         <v>0.1706221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1282,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0.68399719999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6839972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1305,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0.54997450000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5499745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1328,10 +1315,10 @@
         <v>-1</v>
       </c>
       <c r="G40">
-        <v>0.85436489999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8543649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1351,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.61357859999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6135786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1374,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0.59767749999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5976775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1397,10 +1384,10 @@
         <v>-1</v>
       </c>
       <c r="G43">
-        <v>0.54088809999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5408881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1420,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0.56133250000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5613325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1443,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0.87708090000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8770809000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1469,7 +1456,7 @@
         <v>0.1161044</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1489,10 +1476,10 @@
         <v>-1</v>
       </c>
       <c r="G47">
-        <v>0.88414979999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8841498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1512,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0.12973419999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1297342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1535,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0.77031680000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7703168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1561,7 +1548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1581,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.16380749999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1638075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1607,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>10</v>
       </c>
@@ -1630,7 +1617,7 @@
         <v>0.1547211</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1650,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.60222059999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6022206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1673,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.61584970000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6158497000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1696,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.89550779999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8955078</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>10</v>
       </c>
@@ -1719,10 +1706,10 @@
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>0.84527870000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8452787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>10</v>
       </c>
@@ -1742,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.68854020000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6885402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>10</v>
       </c>
@@ -1765,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.68932150000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6893215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>10</v>
       </c>
@@ -1788,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.69762639999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6976264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>10</v>
       </c>
@@ -1811,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.67945409999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6794540999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>10</v>
       </c>
@@ -1837,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>10</v>
       </c>
@@ -1857,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.60676370000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6067637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>10</v>
       </c>
@@ -1883,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1903,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.68626869999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6862687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>10</v>
       </c>
@@ -1929,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>10</v>
       </c>
@@ -1952,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>10</v>
       </c>
@@ -1975,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>10</v>
       </c>
@@ -1998,7 +1985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>10</v>
       </c>
@@ -2018,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.57950500000000005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.579505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2044,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>10</v>
       </c>
@@ -2064,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.96645289999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9664528999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2087,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>4.7957659999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.04795766</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>10</v>
       </c>
@@ -2110,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.58859119999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5885912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>10</v>
       </c>
@@ -2133,10 +2120,10 @@
         <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.63175110000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6317511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2156,10 +2143,10 @@
         <v>-1</v>
       </c>
       <c r="G76">
-        <v>0.63856570000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6385657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>10</v>
       </c>
@@ -2182,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>10</v>
       </c>
@@ -2202,10 +2189,10 @@
         <v>-1</v>
       </c>
       <c r="G78">
-        <v>0.58631960000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5863196000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>10</v>
       </c>
@@ -2225,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.64310869999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6431087</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2248,10 +2235,10 @@
         <v>-1</v>
       </c>
       <c r="G80">
-        <v>0.71125579999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7112558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2271,10 +2258,10 @@
         <v>-1</v>
       </c>
       <c r="G81">
-        <v>0.82937780000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8293778000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>10</v>
       </c>
@@ -2297,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2317,10 +2304,10 @@
         <v>-1</v>
       </c>
       <c r="G83">
-        <v>0.89525330000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8952533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>10</v>
       </c>
@@ -2343,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2363,10 +2350,10 @@
         <v>-1</v>
       </c>
       <c r="G85">
-        <v>0.94749950000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9474995000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>10</v>
       </c>
@@ -2386,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.87708079999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8770808</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2412,7 +2399,7 @@
         <v>0.6794538</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>10</v>
       </c>
@@ -2432,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.95885710000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9588571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>10</v>
       </c>
@@ -2458,7 +2445,7 @@
         <v>0.2455841</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>10</v>
       </c>
@@ -2481,7 +2468,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>10</v>
       </c>
@@ -2501,10 +2488,10 @@
         <v>-1</v>
       </c>
       <c r="G91">
-        <v>0.87708079999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8770808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>10</v>
       </c>
@@ -2527,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>10</v>
       </c>
@@ -2547,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.12893270000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1289327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>10</v>
       </c>
@@ -2573,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>10</v>
       </c>
@@ -2593,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>0.69823000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.69823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>10</v>
       </c>
@@ -2619,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2642,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>10</v>
       </c>
@@ -2665,7 +2652,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2685,10 +2672,10 @@
         <v>-1</v>
       </c>
       <c r="G99">
-        <v>0.79893999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.79894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>10</v>
       </c>
@@ -2708,10 +2695,10 @@
         <v>-1</v>
       </c>
       <c r="G100">
-        <v>0.56991999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.56992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>10</v>
       </c>
@@ -2734,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>10</v>
       </c>
@@ -2757,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2780,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>10</v>
       </c>
@@ -2800,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0.41289300000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.412893</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>10</v>
       </c>
@@ -2826,7 +2813,7 @@
         <v>0.30123</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>10</v>
       </c>
@@ -2849,7 +2836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2872,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>10</v>
       </c>
@@ -2895,7 +2882,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>10</v>
       </c>
@@ -2918,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>10</v>
       </c>
@@ -2938,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>0.44829999999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.4483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>10</v>
       </c>
@@ -2964,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>10</v>
       </c>
@@ -2987,7 +2974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>10</v>
       </c>
@@ -3010,7 +2997,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>10</v>
       </c>
@@ -3033,7 +3020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>10</v>
       </c>
@@ -3056,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>10</v>
       </c>
@@ -3079,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>10</v>
       </c>
@@ -3102,7 +3089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>10</v>
       </c>
@@ -3125,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>10</v>
       </c>
@@ -3145,10 +3132,10 @@
         <v>-1</v>
       </c>
       <c r="G119">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>10</v>
       </c>
@@ -3171,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>10</v>
       </c>
@@ -3191,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>0.69020000000000004</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>10</v>
       </c>
@@ -3217,7 +3204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>10</v>
       </c>
@@ -3240,7 +3227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>10</v>
       </c>
@@ -3260,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.78912300000000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.789123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>10</v>
       </c>
@@ -3283,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>0.69013000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.69013</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>10</v>
       </c>
@@ -3306,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>0.31319999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>10</v>
       </c>
@@ -3332,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>10</v>
       </c>
@@ -3352,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>0.81289999999999996</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>10</v>
       </c>
@@ -3378,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>10</v>
       </c>
@@ -3401,7 +3388,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>10</v>
       </c>
@@ -3424,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>10</v>
       </c>
@@ -3447,7 +3434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>10</v>
       </c>
@@ -3470,7 +3457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>10</v>
       </c>
@@ -3493,7 +3480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>10</v>
       </c>
@@ -3516,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>10</v>
       </c>
@@ -3539,7 +3526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>10</v>
       </c>
@@ -3562,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>10</v>
       </c>
@@ -3585,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>10</v>
       </c>
@@ -3605,10 +3592,10 @@
         <v>-1</v>
       </c>
       <c r="G139">
-        <v>0.38919999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3892</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>10</v>
       </c>
@@ -3631,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>10</v>
       </c>
@@ -3654,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>10</v>
       </c>
@@ -3674,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>0.43120000000000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.4312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>10</v>
       </c>
@@ -3700,7 +3687,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>10</v>
       </c>
@@ -3723,7 +3710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>10</v>
       </c>
@@ -3746,7 +3733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>10</v>
       </c>
@@ -3769,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>10</v>
       </c>
@@ -3792,7 +3779,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>10</v>
       </c>
@@ -3815,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>10</v>
       </c>
@@ -3838,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>10</v>
       </c>
@@ -3858,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>0.69830000000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6983</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>10</v>
       </c>
@@ -3881,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>10</v>
       </c>
@@ -3904,10 +3891,10 @@
         <v>-1</v>
       </c>
       <c r="G152">
-        <v>0.71023000000000003</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.71023</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>10</v>
       </c>
@@ -3930,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>10</v>
       </c>
@@ -3950,10 +3937,10 @@
         <v>-1</v>
       </c>
       <c r="G154">
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8411999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3976,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>10</v>
       </c>
@@ -3999,7 +3986,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>10</v>
       </c>
@@ -4022,7 +4009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>10</v>
       </c>
@@ -4042,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>0.69032000000000004</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.69032</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>10</v>
       </c>
@@ -4068,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>10</v>
       </c>
@@ -4091,7 +4078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>10</v>
       </c>
@@ -4114,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>10</v>
       </c>
@@ -4134,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0.75890000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7589</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>10</v>
       </c>
@@ -4157,10 +4144,10 @@
         <v>-1</v>
       </c>
       <c r="G163">
-        <v>0.72389999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>10</v>
       </c>
@@ -4183,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>10</v>
       </c>
@@ -4206,7 +4193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>10</v>
       </c>
@@ -4226,10 +4213,10 @@
         <v>-1</v>
       </c>
       <c r="G166">
-        <v>0.83428999999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.83429</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>10</v>
       </c>
@@ -4252,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>10</v>
       </c>
@@ -4272,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>0.23930999999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.23931</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>10</v>
       </c>
@@ -4298,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>10</v>
       </c>
@@ -4321,7 +4308,7 @@
         <v>0.12332</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>10</v>
       </c>
@@ -4344,7 +4331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>10</v>
       </c>
@@ -4367,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>10</v>
       </c>
@@ -4390,7 +4377,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>10</v>
       </c>
@@ -4413,7 +4400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>10</v>
       </c>
@@ -4436,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>10</v>
       </c>
@@ -4459,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>10</v>
       </c>
@@ -4482,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>10</v>
       </c>
@@ -4505,7 +4492,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>10</v>
       </c>
@@ -4528,7 +4515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>10</v>
       </c>
@@ -4551,7 +4538,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>10</v>
       </c>
@@ -4571,13 +4558,10 @@
         <v>-1</v>
       </c>
       <c r="G181">
-        <v>0.78122999999999998</v>
+        <v>0.78123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G181">
-    <sortCondition ref="B2:B181"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>